--- a/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
+++ b/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/4.Array_Strings_Recursion_BackTracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07F3D7D2-6D0A-45E8-A809-B9BD2EA06090}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0F02E7E-863B-483C-89C2-81D922657DFA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Topic Tags</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Array, Two Pointer, Recursion</t>
-  </si>
-  <si>
     <t>Array</t>
   </si>
   <si>
@@ -49,6 +46,30 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/print-words-vertically/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum/</t>
+  </si>
+  <si>
+    <t>Array, Hashmap</t>
+  </si>
+  <si>
+    <t>Solved using BruteForce. Can be improved</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-words-in-a-string/</t>
+  </si>
+  <si>
+    <t>Tokenize the string and reverse</t>
+  </si>
+  <si>
+    <t>Array, String</t>
+  </si>
+  <si>
+    <t>Array, Two Pointer, Recursion, String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-array/</t>
   </si>
 </sst>
 </file>
@@ -418,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -448,68 +469,100 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{7E090650-01F6-4D14-B9F9-2345292142C8}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{ACA2D632-E61F-4572-AD67-548C14C78FA1}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{C5427D33-E681-4ECA-A799-132F18C89F05}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
+++ b/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/4.Array_Strings_Recursion_BackTracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0F02E7E-863B-483C-89C2-81D922657DFA}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39C06D23-BC1E-4C20-9E32-FCC2BBDEDF37}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Topic Tags</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/rotate-array/</t>
+  </si>
+  <si>
+    <t>Reverse first half &amp; second half seperately, combinely reverse the whole array</t>
   </si>
 </sst>
 </file>
@@ -442,14 +445,14 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="45.109375" customWidth="1"/>
     <col min="2" max="2" width="72.33203125" customWidth="1"/>
-    <col min="3" max="3" width="42.21875" customWidth="1"/>
+    <col min="3" max="3" width="73.88671875" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
@@ -495,6 +498,10 @@
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">

--- a/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
+++ b/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/4.Array_Strings_Recursion_BackTracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39C06D23-BC1E-4C20-9E32-FCC2BBDEDF37}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A538887-9EEF-4503-9768-4B51AC988B16}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Topic Tags</t>
   </si>
@@ -73,6 +73,30 @@
   </si>
   <si>
     <t>Reverse first half &amp; second half seperately, combinely reverse the whole array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subsets/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-palindromic-substring/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/is-subsequence/</t>
+  </si>
+  <si>
+    <t>Array, DP</t>
+  </si>
+  <si>
+    <t>String, DP</t>
+  </si>
+  <si>
+    <t>Two Pointer, String, DP</t>
+  </si>
+  <si>
+    <t>Array, Backtracking, Bitmanipulation</t>
   </si>
 </sst>
 </file>
@@ -442,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -563,13 +587,49 @@
         <v>4</v>
       </c>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{7E090650-01F6-4D14-B9F9-2345292142C8}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{ACA2D632-E61F-4572-AD67-548C14C78FA1}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{C5427D33-E681-4ECA-A799-132F18C89F05}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{931979EC-963F-481D-BE21-EA57E2466B67}"/>
+    <hyperlink ref="B19" r:id="rId5" xr:uid="{86F096D3-0A77-4814-ADB8-6455E2F3C921}"/>
+    <hyperlink ref="B17" r:id="rId6" xr:uid="{C86A415C-FC3D-4B9F-881B-9D678A6D1621}"/>
+    <hyperlink ref="B18" r:id="rId7" xr:uid="{347D2A73-64C2-400A-8865-6CFC50D7803B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
+++ b/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/4.Array_Strings_Recursion_BackTracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A538887-9EEF-4503-9768-4B51AC988B16}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C165587-E6A7-4442-A32A-36EAC2B93D4F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Topic Tags</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Array, Backtracking, Bitmanipulation</t>
+  </si>
+  <si>
+    <t>Used Kadane's algo</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -594,6 +597,10 @@
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">

--- a/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
+++ b/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/4.Array_Strings_Recursion_BackTracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C165587-E6A7-4442-A32A-36EAC2B93D4F}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B4F43C7-6231-4733-BA41-95CBEBB19900}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Topic Tags</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Used Kadane's algo</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindromic-substrings/</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -607,22 +610,30 @@
         <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -632,11 +643,12 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{ACA2D632-E61F-4572-AD67-548C14C78FA1}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{C5427D33-E681-4ECA-A799-132F18C89F05}"/>
     <hyperlink ref="B16" r:id="rId4" xr:uid="{931979EC-963F-481D-BE21-EA57E2466B67}"/>
-    <hyperlink ref="B19" r:id="rId5" xr:uid="{86F096D3-0A77-4814-ADB8-6455E2F3C921}"/>
-    <hyperlink ref="B17" r:id="rId6" xr:uid="{C86A415C-FC3D-4B9F-881B-9D678A6D1621}"/>
-    <hyperlink ref="B18" r:id="rId7" xr:uid="{347D2A73-64C2-400A-8865-6CFC50D7803B}"/>
+    <hyperlink ref="B20" r:id="rId5" xr:uid="{86F096D3-0A77-4814-ADB8-6455E2F3C921}"/>
+    <hyperlink ref="B18" r:id="rId6" xr:uid="{C86A415C-FC3D-4B9F-881B-9D678A6D1621}"/>
+    <hyperlink ref="B19" r:id="rId7" xr:uid="{347D2A73-64C2-400A-8865-6CFC50D7803B}"/>
+    <hyperlink ref="B17" r:id="rId8" xr:uid="{C3AD5C3C-2E9C-4198-91A9-A7F92B5E9B8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
+++ b/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/4.Array_Strings_Recursion_BackTracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B4F43C7-6231-4733-BA41-95CBEBB19900}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7102DFF1-37B2-4668-88D8-A54F1BF179BB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Topic Tags</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/palindromic-substrings/</t>
+  </si>
+  <si>
+    <t>Used Brute force, Will optimize later</t>
+  </si>
+  <si>
+    <t>TLE if we use brute force as above</t>
   </si>
 </sst>
 </file>
@@ -472,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -605,23 +611,30 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -629,13 +642,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
+++ b/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/4.Array_Strings_Recursion_BackTracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7102DFF1-37B2-4668-88D8-A54F1BF179BB}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8EA2C0F-9ACF-4958-8212-91D68F955327}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Topic Tags</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>TLE if we use brute force as above</t>
+  </si>
+  <si>
+    <t>TLE if we use recursive way of generating subsequences</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -640,6 +643,9 @@
       </c>
       <c r="B19" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4">

--- a/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
+++ b/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/4.Array_Strings_Recursion_BackTracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8EA2C0F-9ACF-4958-8212-91D68F955327}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A11B53F1-AC5F-41A0-9087-0D766353F8DD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Topic Tags</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>TLE if we use recursive way of generating subsequences</t>
+  </si>
+  <si>
+    <t>2^n recursive solution working</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -655,6 +658,10 @@
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3"/>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="2"/>

--- a/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
+++ b/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
@@ -487,7 +487,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C10" activeCellId="1" sqref="C7 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
+++ b/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/4.Array_Strings_Recursion_BackTracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A11B53F1-AC5F-41A0-9087-0D766353F8DD}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35CBB97B-54E3-407D-8D08-A2AB233B290E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Topic Tags</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>2^n recursive solution working</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-a-2d-matrix/</t>
+  </si>
+  <si>
+    <t>Array, Binary search, Matrix</t>
+  </si>
+  <si>
+    <t>Sorted using Binary search. Treated whole matrix as an array using special calculations</t>
   </si>
 </sst>
 </file>
@@ -487,15 +496,15 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" activeCellId="1" sqref="C7 C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="45.109375" customWidth="1"/>
     <col min="2" max="2" width="72.33203125" customWidth="1"/>
-    <col min="3" max="3" width="73.88671875" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="3" max="3" width="95" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.4">
@@ -664,7 +673,16 @@
       <c r="D20" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="B22" s="2"/>
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -676,8 +694,9 @@
     <hyperlink ref="B18" r:id="rId6" xr:uid="{C86A415C-FC3D-4B9F-881B-9D678A6D1621}"/>
     <hyperlink ref="B19" r:id="rId7" xr:uid="{347D2A73-64C2-400A-8865-6CFC50D7803B}"/>
     <hyperlink ref="B17" r:id="rId8" xr:uid="{C3AD5C3C-2E9C-4198-91A9-A7F92B5E9B8A}"/>
+    <hyperlink ref="B22" r:id="rId9" xr:uid="{F7CB9CA6-DC38-4334-891D-164B9C54CB1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
+++ b/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/4.Array_Strings_Recursion_BackTracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35CBB97B-54E3-407D-8D08-A2AB233B290E}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EF30C8E-C477-44C3-AADD-C1C0DF9F6422}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Topic Tags</t>
   </si>
@@ -124,6 +124,24 @@
   </si>
   <si>
     <t>Sorted using Binary search. Treated whole matrix as an array using special calculations</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/transpose-matrix/</t>
+  </si>
+  <si>
+    <t>Array, Matrix</t>
+  </si>
+  <si>
+    <t>A little tricky with the corner cases</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/spiral-matrix/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-image/</t>
+  </si>
+  <si>
+    <t>Transpose &amp; reverse the matrix</t>
   </si>
 </sst>
 </file>
@@ -493,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -586,117 +604,123 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{7E090650-01F6-4D14-B9F9-2345292142C8}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{ACA2D632-E61F-4572-AD67-548C14C78FA1}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{C5427D33-E681-4ECA-A799-132F18C89F05}"/>
-    <hyperlink ref="B16" r:id="rId4" xr:uid="{931979EC-963F-481D-BE21-EA57E2466B67}"/>
-    <hyperlink ref="B20" r:id="rId5" xr:uid="{86F096D3-0A77-4814-ADB8-6455E2F3C921}"/>
-    <hyperlink ref="B18" r:id="rId6" xr:uid="{C86A415C-FC3D-4B9F-881B-9D678A6D1621}"/>
-    <hyperlink ref="B19" r:id="rId7" xr:uid="{347D2A73-64C2-400A-8865-6CFC50D7803B}"/>
-    <hyperlink ref="B17" r:id="rId8" xr:uid="{C3AD5C3C-2E9C-4198-91A9-A7F92B5E9B8A}"/>
-    <hyperlink ref="B22" r:id="rId9" xr:uid="{F7CB9CA6-DC38-4334-891D-164B9C54CB1E}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{931979EC-963F-481D-BE21-EA57E2466B67}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{86F096D3-0A77-4814-ADB8-6455E2F3C921}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{C86A415C-FC3D-4B9F-881B-9D678A6D1621}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{347D2A73-64C2-400A-8865-6CFC50D7803B}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{C3AD5C3C-2E9C-4198-91A9-A7F92B5E9B8A}"/>
+    <hyperlink ref="B16" r:id="rId9" xr:uid="{F7CB9CA6-DC38-4334-891D-164B9C54CB1E}"/>
+    <hyperlink ref="B18" r:id="rId10" xr:uid="{A1F22932-1FFD-4607-B0EA-F9D29B80F74F}"/>
+    <hyperlink ref="B17" r:id="rId11" xr:uid="{DEEBF278-E48E-4DBD-9B3A-E0F7B7924BD2}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{6A925118-0DA7-4016-9FE8-50E3B05E8318}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
+++ b/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/4.Array_Strings_Recursion_BackTracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EF30C8E-C477-44C3-AADD-C1C0DF9F6422}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6652D316-3EF1-421C-804F-BE40FE7A3974}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Topic Tags</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Transpose &amp; reverse the matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lucky-numbers-in-a-matrix/</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -704,6 +707,15 @@
         <v>38</v>
       </c>
       <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -719,8 +731,9 @@
     <hyperlink ref="B18" r:id="rId10" xr:uid="{A1F22932-1FFD-4607-B0EA-F9D29B80F74F}"/>
     <hyperlink ref="B17" r:id="rId11" xr:uid="{DEEBF278-E48E-4DBD-9B3A-E0F7B7924BD2}"/>
     <hyperlink ref="B19" r:id="rId12" xr:uid="{6A925118-0DA7-4016-9FE8-50E3B05E8318}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{F3B947B9-4B50-4FFC-8F56-946B07BDA1E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
+++ b/C++/4.Array_Strings_Recursion_BackTracking/LC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/802969a580a30f56/Desktop/DS_ALGO/C^M^M/4.Array_Strings_Recursion_BackTracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6652D316-3EF1-421C-804F-BE40FE7A3974}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="11_F25DC773A252ABDACC104817091B6F3C5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28B10089-884E-466D-8AFE-4A110675E3F4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Topic Tags</t>
   </si>
@@ -145,6 +145,24 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/lucky-numbers-in-a-matrix/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/climbing-stairs/</t>
+  </si>
+  <si>
+    <t>Recursion, DP</t>
+  </si>
+  <si>
+    <t>Requires DP for optimization</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/n-queens/</t>
+  </si>
+  <si>
+    <t>Recursion, Backtracking</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sudoku-solver/</t>
   </si>
 </sst>
 </file>
@@ -514,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -716,6 +734,36 @@
         <v>39</v>
       </c>
       <c r="D20" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -732,8 +780,11 @@
     <hyperlink ref="B17" r:id="rId11" xr:uid="{DEEBF278-E48E-4DBD-9B3A-E0F7B7924BD2}"/>
     <hyperlink ref="B19" r:id="rId12" xr:uid="{6A925118-0DA7-4016-9FE8-50E3B05E8318}"/>
     <hyperlink ref="B20" r:id="rId13" xr:uid="{F3B947B9-4B50-4FFC-8F56-946B07BDA1E6}"/>
+    <hyperlink ref="B23" r:id="rId14" xr:uid="{32E354F0-DA05-490C-9714-A9A80C936D05}"/>
+    <hyperlink ref="B24" r:id="rId15" xr:uid="{540563EE-02B7-4262-95DA-55236D4FA2DE}"/>
+    <hyperlink ref="B25" r:id="rId16" xr:uid="{3290F778-1D6F-40D2-A115-464FA1BA3217}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>